--- a/50_Hinglish_Conversations.xlsx
+++ b/50_Hinglish_Conversations.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1576" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1553" uniqueCount="240">
   <si>
     <t>Conversation ID</t>
   </si>
@@ -62,9 +62,6 @@
   </si>
   <si>
     <t>High</t>
-  </si>
-  <si>
-    <t>Family ke liye SUV chahiye</t>
   </si>
   <si>
     <t>Great! What's your budget (maximum)?
@@ -88,33 +85,7 @@
     <t>Hyundai</t>
   </si>
   <si>
-    <t>Found 2 cars matching your criteria:
-**car1** 🚗 **Hyundai Creta Creta SX**
-📅 2019 | ⛽ Petrol | 🏃 45,000 km | 💰 ₹12,50,000
-**car2** 🚗 **Hyundai Venue Venue SX**
-📅 2020 | ⛽ Petrol | 🏃 35,000 km | 💰 ₹9,80,000
-Type car1, car2, etc. to see details or "show more" for additional options.</t>
-  </si>
-  <si>
     <t>car1 ka details batao</t>
-  </si>
-  <si>
-    <t>🚗 **Hyundai Creta Creta SX**
-📅 **Year:** 2019
-⛽ **Fuel:** Petrol
-🏃 **Mileage:** 45,000 km
-💰 **Price:** ₹12,50,000
-✅ **Features:**
-- Touchscreen Infotainment
-- Automatic AC
-- Power Steering
-- Central Locking
-- Music System
-Would you like to:
-1. Book a test drive
-2. Get financing options
-3. See more details
-4. Compare with other cars</t>
   </si>
   <si>
     <t>Car Search - Budget Hatchback</t>
@@ -140,48 +111,13 @@
     <t>Great! Hatchback it is. Select a brand: Ford | Honda | Hyundai | Kia | Mahindra | Maruti | Maruti Suzuki | Nissan | Renault | Skoda | Tata | Toyota | Volkswagen</t>
   </si>
   <si>
-    <t>Found 3 cars matching your criteria:
-**car1** 🚗 **Hyundai Grand i10 Grand i10 Sportz**
-📅 2018 | ⛽ Petrol | 🏃 50,000 km | 💰 ₹5,20,000
-**car2** 🚗 **Hyundai i20 i20 Sportz**
-📅 2019 | ⛽ Petrol | 🏃 40,000 km | 💰 ₹7,80,000
-**car3** 🚗 **Hyundai Aura Aura SX**
-📅 2020 | ⛽ Petrol | 🏃 30,000 km | 💰 ₹7,50,000
-Type car1, car2, car3, etc. to see details or "show more" for additional options.</t>
-  </si>
-  <si>
     <t>i20 ka price kitna hai?</t>
   </si>
   <si>
-    <t>🚗 **Hyundai i20 i20 Sportz**
-📅 **Year:** 2019
-⛽ **Fuel:** Petrol
-🏃 **Mileage:** 40,000 km
-💰 **Price:** ₹7,80,000
-✅ **Features:**
-- Touchscreen Infotainment
-- Automatic AC
-- Power Steering
-- Central Locking
-- Music System
-- Bluetooth Connectivity
-Would you like to:
-1. Book a test drive
-2. Get financing options
-3. See more details
-4. Compare with other cars</t>
-  </si>
-  <si>
     <t>Car Search - Premium Sedan</t>
   </si>
   <si>
     <t>Namaste, main ek sedan dekh raha hun</t>
-  </si>
-  <si>
-    <t>Office ke liye sedan chahiye</t>
-  </si>
-  <si>
-    <t>20 lakhs tak</t>
   </si>
   <si>
     <t>Got it. Budget up to ₹20,00,000.
@@ -193,14 +129,6 @@
   </si>
   <si>
     <t>Great! Sedan it is. Select a brand: Ford | Honda | Hyundai | Kia | Mahindra | Maruti | Maruti Suzuki | Nissan | Renault | Skoda | Tata | Toyota | Volkswagen</t>
-  </si>
-  <si>
-    <t>Found 2 cars matching your criteria:
-**car1** 🚗 **Hyundai Verna Verna SX**
-📅 2020 | ⛽ Petrol | 🏃 25,000 km | 💰 ₹15,50,000
-**car2** 🚗 **Hyundai Elantra Elantra SX**
-📅 2019 | ⛽ Petrol | 🏃 35,000 km | 💰 ₹18,80,000
-Type car1, car2, etc. to see details or "show more" for additional options.</t>
   </si>
   <si>
     <t>Verna ka test drive lena hai</t>
@@ -352,9 +280,6 @@
   </si>
   <si>
     <t>Dhanyawad</t>
-  </si>
-  <si>
-    <t>You're welcome! We're here to help with all your car needs. Feel free to reach out anytime.</t>
   </si>
   <si>
     <t>Contact Information - Callback</t>
@@ -522,32 +447,6 @@
 Or type "any type" to see all types.</t>
   </si>
   <si>
-    <t>Found 2 cars matching your criteria:
-**car1** 🚗 **Hyundai i20 i20 SX**
-📅 2019 | ⛽ Petrol | 🏃 40,000 km | 💰 ₹5,00,000
-**car2** 🚗 **Hyundai i20 i20 Sportz**
-📅 2020 | ⛽ Petrol | 🏃 30,000 km | 💰 ₹5,50,000
-Type car1, car2, etc. to see details or "show more" for additional options.</t>
-  </si>
-  <si>
-    <t>🚗 **Hyundai i20 i20 SX**
-📅 **Year:** 2019
-⛽ **Fuel:** Petrol
-🏃 **Mileage:** 40,000 km
-💰 **Price:** ₹5,00,000
-✅ **Features:**
-- Touchscreen Infotainment
-- Automatic AC
-- Power Steering
-- Central Locking
-- Music System
-Would you like to:
-1. Book a test drive
-2. Get financing options
-3. See more details
-4. Compare with other cars</t>
-  </si>
-  <si>
     <t>Car Search - City Car</t>
   </si>
   <si>
@@ -1687,13 +1586,239 @@
   <si>
     <t>Total Turns</t>
   </si>
+  <si>
+    <t>Bahut badhiya! Aapka budget kya hai? (Maximum)
+Aap values type kar sakte hain jaise '12 lakhs', 'below 20 lakhs', ya number jaise 1200000.</t>
+  </si>
+  <si>
+    <t>Samajh gaya. Budget up to ₹15,00,000
+Brand choose karein (Suv): Ford | Honda | Hyundai | Kia | Mahindra | Maruti | Maruti Suzuki | Renault | Skoda | TATA | Tata | Toyota | Volkswagen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Found 10 cars matching your criteria:        
+**car1** 🚗 **Hyundai Verna Verna VXi**
+📅 2022 | ⛽ Petrol | 🔧 Manual
+📊 1,04,662km | 🎨 White | 💰 ₹203218
+---
+**car2** 🚗 **Hyundai Creta Creta LXi**
+📅 2020 | ⛽ Diesel | 🔧 Manual
+📊 34,306km | 🎨 Green | 💰 ₹310656
+---
+**car3** 🚗 **Hyundai Venue Venue VXi**
+📅 2018 | ⛽ Petrol | 🔧 Automatic
+📊 24,826km | 🎨 Black | 💰 ₹413522
+---
+**car4** 🚗 **Hyundai I10 grand I10 grand asta (o)**
+📅 2013 | ⛽ Petrol | 🔧 Automatic
+📊 62,320km | 🎨 W red | 💰 ₹415000
+---
+**car5** 🚗 **Hyundai Verna Verna EX**
+📅 2021 | ⛽ Electric | 🔧 Manual
+📊 1,28,604km | 🎨 Blue | 💰 ₹423978
+📱 *Type "show more" to see additional cars*
+💡 **How to select a car:**
+• Type car1, car2, car3, etc.</t>
+  </si>
+  <si>
+    <t>🚗 **Hyundai Verna Verna VXi**
+📅 **Year:** 2022
+⛽ **Fuel:** Petrol
+🔧 **Transmission:** Manual
+📏 **Mileage:** 1,04,662 km
+🎨 **Color:** White
+💰 **Price:** ₹203218
+❓ **Would you like to book a test drive for this car?** (Yes/No)</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Great! Let's book your test drive. Please provide your details:
+**Name:** (Your full name)</t>
+  </si>
+  <si>
+    <t>Abc</t>
+  </si>
+  <si>
+    <t>Thanks sneha! Now please provide your **phone number** and confirm if you have a **valid driving license**.
+Format: Phone: [your number], DL: Yes/No</t>
+  </si>
+  <si>
+    <t>98765445677 yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Perfect! Phone: 9876543456, DL: Yes
+Now please choose your preferred **test drive location**:     
+1. **Main Showroom** (MG Road)
+2. **Banashankari Branch**
+3. **Whitefield Branch**
+Type the number (1, 2, or 3) or location name.</t>
+  </si>
+  <si>
+    <t>🎉 **Test Drive Confirmed!**
+📋 **Booking Details:**
+• **Car:** Hyundai Verna Verna VXi
+• **Customer:** sneha
+• **Phone:** 9876543456
+• **Location:** Main Showroom (MG Road)
+• **Confirmation ID:** TD-675958
+• **Date:** Tomorrow (11:00 AM - 12:00 PM)
+✅ **You'll receive a confirmation message shortly!**
+Is there anything else I can help you with?</t>
+  </si>
+  <si>
+    <t>Namaste! Sherpa Hyundai mein aapka swagat hai! Aaj main aapki kaise madad kar sakta hun?</t>
+  </si>
+  <si>
+    <t>City mein chalane ke liye, aapki budget range kya hai? Isse mujhe aapke liye sahi options dhoondhne mein madad milegi. Aap values type kar sakte hain jaise '12 lakhs', 'below 20 lakhs', ya number jaise 1200000.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Theek hai! ₹8,00,000 se kam budget hai. Car ka type kya hona chahiye? Hatchback, Sedan, ya koi aur? </t>
+  </si>
+  <si>
+    <t>Perfect! Hatchback. Brand choose karein: Ford | Honda | Hyundai | Kia | Mahindra | Maruti | Renault | Skoda | TATA | Tata | Toyota | Volkswagen</t>
+  </si>
+  <si>
+    <t>Found 25 cars matching your criteria:        
+**car1** 🚗 **Hyundai i20 i20 EX**
+📅 2015 | ⛽ Electric | 🔧 Automatic
+📊 54,258km | 🎨 Grey | 💰 ₹202499
+---
+**car2** 🚗 **Hyundai i20 i20 ZXi**
+📅 2015 | ⛽ Petrol | 🔧 Manual
+📊 24,679km | 🎨 Grey | 💰 ₹374182
+---
+**car3** 🚗 **Hyundai i20 i20 SX**
+📅 2015 | ⛽ Petrol | 🔧 Manual
+📊 74,000km | 🎨 Red | 💰 ₹420000
+---
+**car4** 🚗 **Hyundai i20 i20 ZXi**
+📅 2015 | ⛽ Petrol | 🔧 Manual
+📊 76,500km | 🎨 Blue | 💰 ₹450000
+---
+**car5** 🚗 **Hyundai i20 Sportz Diesel**
+📅 2024 | ⛽ Diesel | 🔧 Manual
+📊 N/Akm | 🎨 Silver | 💰 ₹600000
+📱 *Type "show more" to see additional cars*
+💡 **How to select a car:**
+• Type car1, car2, car3, etc.</t>
+  </si>
+  <si>
+    <t>Namaste! Sedan dekh rahe hain. Aapka budget kitna hai?</t>
+  </si>
+  <si>
+    <t>20 lak se kam</t>
+  </si>
+  <si>
+    <t>Samajh gaya. Budget ₹20,00,000 se kam hai. Aap Hyundai mein hi dekh rahe hain ya koi aur brand bhi chalega?</t>
+  </si>
+  <si>
+    <t>Verna</t>
+  </si>
+  <si>
+    <t>Okay, ₹20,00,000 se kam mein Hyundai ki sedan. Aapko Honda City mein interest hai ya koi aur model aapke dimaag mein hai?</t>
+  </si>
+  <si>
+    <t>Great! I'll help you book a test drive. Which car are you interested in? Please mention the car name (e.g., "Tata Nexon", "Honda City", "Hyundai Creta").</t>
+  </si>
+  <si>
+    <t>Aapka swagat hai! Kya aapko aur kuch chahiye ya main aapki koi aur madad kar sakta hun?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Perfect! Here are our direct contact numbers for immediate assistance:
+CALL US DIRECTLY:
+Main Showroom - Bangalore:
+- Sales: +91-9876543210
+- Service: +91-9876543211
+- Available: Mon-Sat: 9 AM - 8 PM, Sun: 10 AM - 6 PM
+Branch - Electronic City:
+- Sales: +91-9876543212
+- Available: Mon-Sat: 9 AM - 8 PM
+Emergency Support:
+- 24/7 Helpline: +91-9876543213
+Pro Tip: Mention you contacted us via WhatsApp for priority assistance!</t>
+  </si>
+  <si>
+    <t>Bahut badhiya! Aapka budget kya hai? (Maximum)        
+Aap values type kar sakte hain jaise '12 lakhs', 'below 20 lakhs', ya number jaise 1200000.</t>
+  </si>
+  <si>
+    <t>5 lak</t>
+  </si>
+  <si>
+    <t>Samajh gaya. Budget up to ₹5,00,000
+Brand choose karein (Hatchback): Ford | Honda | Hyundai | Kia | Mahindra | Maruti | Maruti Suzuki | Renault | Skoda | TATA | Tata | Toyota | Volkswagen</t>
+  </si>
+  <si>
+    <t>Tata</t>
+  </si>
+  <si>
+    <t>Aapke criteria ke hisaab se 5 cars mili hain:
+**car1** 🚗 **Tata Altroz Altroz LXi**
+📅 2014 | ⛽ Electric | 🔧 Automatic
+📊 57,054km | 🎨 White | 💰 ₹224776
+---
+**car2** 🚗 **Tata Tiago Tiago SX**
+📅 2022 | ⛽ CNG | 🔧 Manual
+📊 1,08,170km | 🎨 Black | 💰 ₹279280
+---
+**car3** 🚗 **Tata Tiago Tiago SX**
+📅 2016 | ⛽ Petrol | 🔧 Manual
+📊 69,500km | 🎨 Blue | 💰 ₹410000
+---
+**car4** 🚗 **Tata Tiago Tiago VXi**
+📅 2017 | ⛽ Petrol | 🔧 Manual
+📊 54,000km | 🎨 Silver | 💰 ₹430000
+---
+**car5** 🚗 **TATA Nano Special Edition**
+📅 2020 | ⛽ Petrol | 🔧 Manual
+📊 15,200km | 🎨 Orange | 💰 ₹450000
+💡 **Car select kaise karein:**
+• car1, car2, car3, etc. type karein</t>
+  </si>
+  <si>
+    <t>car 3 dikao</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 🚗 **Tata Tiago Tiago SX**
+📅 **Year:** 2016
+⛽ **Fuel:** Petrol
+🔧 **Transmission:** Manual
+📏 **Mileage:** 69,500 km
+🎨 **Color:** Blue
+💰 **Price:** ₹410000
+❓ **Would you like to book a test drive for this car?** (Yes/No) </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1721,8 +1846,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2062,13 +2193,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H228"/>
+  <dimension ref="A1:H227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.796875" customWidth="1"/>
     <col min="2" max="2" width="10.796875" customWidth="1"/>
@@ -2080,7 +2211,7 @@
     <col min="8" max="8" width="20.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2106,7 +2237,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2122,8 +2253,8 @@
       <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
-        <v>11</v>
+      <c r="F2" s="1" t="s">
+        <v>209</v>
       </c>
       <c r="G2" t="s">
         <v>12</v>
@@ -2132,7 +2263,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2143,14 +2274,14 @@
         <v>9</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
         <v>15</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>210</v>
+      </c>
       <c r="G3" t="s">
         <v>12</v>
       </c>
@@ -2158,7 +2289,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2169,13 +2300,13 @@
         <v>9</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="G4" t="s">
         <v>12</v>
@@ -2184,7 +2315,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="156" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2195,13 +2326,13 @@
         <v>9</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="G5" t="s">
         <v>12</v>
@@ -2210,111 +2341,39 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="6" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>213</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="140.4" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>217</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="202.8" x14ac:dyDescent="0.3">
+      <c r="E9">
         <v>1</v>
       </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F9" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2</v>
       </c>
@@ -2322,16 +2381,16 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>220</v>
       </c>
       <c r="G10" t="s">
         <v>12</v>
@@ -2340,7 +2399,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2348,16 +2407,16 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>221</v>
       </c>
       <c r="G11" t="s">
         <v>12</v>
@@ -2366,7 +2425,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2</v>
       </c>
@@ -2374,16 +2433,16 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
         <v>24</v>
       </c>
-      <c r="D12">
-        <v>5</v>
-      </c>
-      <c r="E12" t="s">
-        <v>20</v>
-      </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>222</v>
       </c>
       <c r="G12" t="s">
         <v>12</v>
@@ -2392,7 +2451,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2400,16 +2459,16 @@
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>223</v>
       </c>
       <c r="G13" t="s">
         <v>12</v>
@@ -2418,21 +2477,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="F14" t="s">
         <v>11</v>
@@ -2444,24 +2503,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" t="s">
-        <v>15</v>
+        <v>28</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>224</v>
       </c>
       <c r="G15" t="s">
         <v>12</v>
@@ -2470,7 +2529,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3</v>
       </c>
@@ -2478,16 +2537,16 @@
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>225</v>
       </c>
       <c r="G16" t="s">
         <v>12</v>
@@ -2496,7 +2555,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>3</v>
       </c>
@@ -2504,16 +2563,16 @@
         <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>39</v>
+        <v>226</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>227</v>
       </c>
       <c r="G17" t="s">
         <v>12</v>
@@ -2522,7 +2581,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>3</v>
       </c>
@@ -2530,16 +2589,16 @@
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D18">
         <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F18" t="s">
-        <v>41</v>
+        <v>229</v>
       </c>
       <c r="G18" t="s">
         <v>12</v>
@@ -2548,7 +2607,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>3</v>
       </c>
@@ -2556,233 +2615,233 @@
         <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D19">
         <v>6</v>
       </c>
       <c r="E19" t="s">
+        <v>228</v>
+      </c>
+      <c r="F19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>21</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>21</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="3">
+        <v>2</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="3">
+        <v>3</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F22" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>21</v>
-      </c>
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="G22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D20">
+      <c r="D23" s="3">
         <v>1</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E23" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F23" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="3">
+        <v>2</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="F24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>22</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D21">
+      <c r="D25" s="3">
+        <v>3</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>31</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>31</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="3">
         <v>2</v>
       </c>
-      <c r="E21" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" t="s">
-        <v>49</v>
-      </c>
-      <c r="G21" t="s">
-        <v>47</v>
-      </c>
-      <c r="H21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22">
-        <v>3</v>
-      </c>
-      <c r="E22" t="s">
-        <v>50</v>
-      </c>
-      <c r="F22" t="s">
-        <v>51</v>
-      </c>
-      <c r="G22" t="s">
-        <v>47</v>
-      </c>
-      <c r="H22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23" t="s">
-        <v>53</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="E27" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G23" t="s">
-        <v>47</v>
-      </c>
-      <c r="H23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-      <c r="E24" t="s">
-        <v>55</v>
-      </c>
-      <c r="F24" t="s">
-        <v>56</v>
-      </c>
-      <c r="G24" t="s">
-        <v>47</v>
-      </c>
-      <c r="H24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>22</v>
-      </c>
-      <c r="B25" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25">
-        <v>3</v>
-      </c>
-      <c r="E25" t="s">
-        <v>57</v>
-      </c>
-      <c r="F25" t="s">
-        <v>58</v>
-      </c>
-      <c r="G25" t="s">
-        <v>47</v>
-      </c>
-      <c r="H25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>31</v>
-      </c>
-      <c r="B26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26" t="s">
-        <v>60</v>
-      </c>
-      <c r="F26" t="s">
-        <v>61</v>
-      </c>
-      <c r="G26" t="s">
-        <v>62</v>
-      </c>
-      <c r="H26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>31</v>
-      </c>
-      <c r="B27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
-      <c r="E27" t="s">
-        <v>63</v>
-      </c>
-      <c r="F27" t="s">
-        <v>64</v>
-      </c>
-      <c r="G27" t="s">
-        <v>62</v>
-      </c>
-      <c r="H27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H27" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>31</v>
       </c>
@@ -2790,25 +2849,25 @@
         <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D28">
         <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F28" t="s">
-        <v>66</v>
+        <v>231</v>
       </c>
       <c r="G28" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="H28" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="234" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>32</v>
       </c>
@@ -2816,25 +2875,25 @@
         <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>68</v>
-      </c>
-      <c r="F29" t="s">
-        <v>61</v>
+        <v>59</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>232</v>
       </c>
       <c r="G29" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="H29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>32</v>
       </c>
@@ -2842,25 +2901,25 @@
         <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D30">
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="F30" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="G30" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="H30" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>32</v>
       </c>
@@ -2868,25 +2927,25 @@
         <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D31">
         <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F31" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="G31" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="H31" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>32</v>
       </c>
@@ -2894,25 +2953,25 @@
         <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D32">
         <v>4</v>
       </c>
       <c r="E32" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="F32" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="G32" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="H32" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2920,129 +2979,129 @@
         <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D33">
         <v>5</v>
       </c>
       <c r="E33" t="s">
+        <v>67</v>
+      </c>
+      <c r="F33" t="s">
+        <v>68</v>
+      </c>
+      <c r="G33" t="s">
+        <v>60</v>
+      </c>
+      <c r="H33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>41</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="3">
+        <v>1</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>41</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" s="3">
+        <v>2</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>41</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" s="3">
+        <v>3</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F36" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G36" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <v>42</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G33" t="s">
-        <v>69</v>
-      </c>
-      <c r="H33" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>41</v>
-      </c>
-      <c r="B34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="D37" s="4">
+        <v>1</v>
+      </c>
+      <c r="E37" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34" t="s">
-        <v>79</v>
-      </c>
-      <c r="F34" t="s">
-        <v>80</v>
-      </c>
-      <c r="G34" t="s">
-        <v>81</v>
-      </c>
-      <c r="H34" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>41</v>
-      </c>
-      <c r="B35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" t="s">
-        <v>78</v>
-      </c>
-      <c r="D35">
-        <v>2</v>
-      </c>
-      <c r="E35" t="s">
-        <v>82</v>
-      </c>
-      <c r="F35" t="s">
-        <v>83</v>
-      </c>
-      <c r="G35" t="s">
-        <v>81</v>
-      </c>
-      <c r="H35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>41</v>
-      </c>
-      <c r="B36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" t="s">
-        <v>78</v>
-      </c>
-      <c r="D36">
-        <v>3</v>
-      </c>
-      <c r="E36" t="s">
-        <v>84</v>
-      </c>
-      <c r="F36" t="s">
-        <v>85</v>
-      </c>
-      <c r="G36" t="s">
-        <v>81</v>
-      </c>
-      <c r="H36" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>42</v>
-      </c>
-      <c r="B37" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" t="s">
-        <v>86</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37" t="s">
-        <v>87</v>
-      </c>
-      <c r="F37" t="s">
-        <v>80</v>
-      </c>
-      <c r="G37" t="s">
-        <v>81</v>
-      </c>
-      <c r="H37" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F37" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>42</v>
       </c>
@@ -3050,51 +3109,51 @@
         <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D38">
         <v>2</v>
       </c>
       <c r="E38" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F38" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G38" t="s">
+        <v>72</v>
+      </c>
+      <c r="H38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
+        <v>42</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" s="4">
+        <v>3</v>
+      </c>
+      <c r="E39" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="H38" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>42</v>
-      </c>
-      <c r="B39" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" t="s">
-        <v>86</v>
-      </c>
-      <c r="D39">
-        <v>3</v>
-      </c>
-      <c r="E39" t="s">
-        <v>90</v>
-      </c>
-      <c r="F39" t="s">
-        <v>91</v>
-      </c>
-      <c r="G39" t="s">
-        <v>81</v>
-      </c>
-      <c r="H39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F39" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>43</v>
       </c>
@@ -3102,16 +3161,16 @@
         <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>93</v>
-      </c>
-      <c r="F40" t="s">
-        <v>15</v>
+        <v>84</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>233</v>
       </c>
       <c r="G40" t="s">
         <v>12</v>
@@ -3120,7 +3179,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>43</v>
       </c>
@@ -3128,16 +3187,16 @@
         <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D41">
         <v>2</v>
       </c>
       <c r="E41" t="s">
-        <v>94</v>
-      </c>
-      <c r="F41" t="s">
-        <v>95</v>
+        <v>234</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>235</v>
       </c>
       <c r="G41" t="s">
         <v>12</v>
@@ -3146,7 +3205,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>43</v>
       </c>
@@ -3154,16 +3213,16 @@
         <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E42" t="s">
-        <v>29</v>
-      </c>
-      <c r="F42" t="s">
-        <v>30</v>
+        <v>236</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>237</v>
       </c>
       <c r="G42" t="s">
         <v>12</v>
@@ -3172,7 +3231,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="156" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>43</v>
       </c>
@@ -3180,16 +3239,16 @@
         <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D43">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E43" t="s">
-        <v>20</v>
-      </c>
-      <c r="F43" t="s">
-        <v>96</v>
+        <v>238</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>239</v>
       </c>
       <c r="G43" t="s">
         <v>12</v>
@@ -3198,24 +3257,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44" t="s">
         <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D44">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="F44" t="s">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="G44" t="s">
         <v>12</v>
@@ -3224,7 +3283,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3232,16 +3291,16 @@
         <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E45" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F45" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G45" t="s">
         <v>12</v>
@@ -3250,7 +3309,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -3258,16 +3317,16 @@
         <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="D46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="F46" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G46" t="s">
         <v>12</v>
@@ -3276,7 +3335,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>44</v>
       </c>
@@ -3284,16 +3343,16 @@
         <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="D47">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E47" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="F47" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="G47" t="s">
         <v>12</v>
@@ -3302,7 +3361,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>44</v>
       </c>
@@ -3310,16 +3369,16 @@
         <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="D48">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E48" t="s">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="F48" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="G48" t="s">
         <v>12</v>
@@ -3328,24 +3387,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B49" t="s">
         <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D49">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="F49" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="G49" t="s">
         <v>12</v>
@@ -3354,7 +3413,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>45</v>
       </c>
@@ -3362,16 +3421,16 @@
         <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E50" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F50" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="G50" t="s">
         <v>12</v>
@@ -3380,7 +3439,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>45</v>
       </c>
@@ -3388,16 +3447,16 @@
         <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E51" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="F51" t="s">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="G51" t="s">
         <v>12</v>
@@ -3406,7 +3465,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>45</v>
       </c>
@@ -3414,16 +3473,16 @@
         <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D52">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E52" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="F52" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="G52" t="s">
         <v>12</v>
@@ -3432,7 +3491,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>45</v>
       </c>
@@ -3440,16 +3499,16 @@
         <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D53">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E53" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="F53" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="G53" t="s">
         <v>12</v>
@@ -3458,24 +3517,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B54" t="s">
         <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D54">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="F54" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="G54" t="s">
         <v>12</v>
@@ -3484,7 +3543,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>46</v>
       </c>
@@ -3492,16 +3551,16 @@
         <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E55" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="F55" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G55" t="s">
         <v>12</v>
@@ -3510,7 +3569,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>46</v>
       </c>
@@ -3518,16 +3577,16 @@
         <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E56" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="F56" t="s">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="G56" t="s">
         <v>12</v>
@@ -3536,7 +3595,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>46</v>
       </c>
@@ -3544,16 +3603,16 @@
         <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D57">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E57" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="F57" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="G57" t="s">
         <v>12</v>
@@ -3562,7 +3621,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>46</v>
       </c>
@@ -3570,16 +3629,16 @@
         <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D58">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E58" t="s">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="F58" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="G58" t="s">
         <v>12</v>
@@ -3588,24 +3647,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B59" t="s">
         <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D59">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E59" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="F59" t="s">
-        <v>118</v>
+        <v>14</v>
       </c>
       <c r="G59" t="s">
         <v>12</v>
@@ -3614,7 +3673,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>47</v>
       </c>
@@ -3622,16 +3681,16 @@
         <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E60" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="F60" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="G60" t="s">
         <v>12</v>
@@ -3640,7 +3699,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>47</v>
       </c>
@@ -3648,16 +3707,16 @@
         <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E61" t="s">
-        <v>120</v>
+        <v>26</v>
       </c>
       <c r="F61" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="G61" t="s">
         <v>12</v>
@@ -3666,7 +3725,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>47</v>
       </c>
@@ -3674,16 +3733,16 @@
         <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D62">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E62" t="s">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="F62" t="s">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="G62" t="s">
         <v>12</v>
@@ -3692,7 +3751,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>47</v>
       </c>
@@ -3700,16 +3759,16 @@
         <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D63">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E63" t="s">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="F63" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="G63" t="s">
         <v>12</v>
@@ -3718,24 +3777,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B64" t="s">
         <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D64">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E64" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="F64" t="s">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="G64" t="s">
         <v>12</v>
@@ -3744,7 +3803,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>48</v>
       </c>
@@ -3752,16 +3811,16 @@
         <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E65" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="F65" t="s">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="G65" t="s">
         <v>12</v>
@@ -3770,7 +3829,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>48</v>
       </c>
@@ -3778,16 +3837,16 @@
         <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D66">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E66" t="s">
-        <v>125</v>
+        <v>32</v>
       </c>
       <c r="F66" t="s">
-        <v>126</v>
+        <v>33</v>
       </c>
       <c r="G66" t="s">
         <v>12</v>
@@ -3796,7 +3855,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>48</v>
       </c>
@@ -3804,16 +3863,16 @@
         <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D67">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E67" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="F67" t="s">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="G67" t="s">
         <v>12</v>
@@ -3822,7 +3881,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>48</v>
       </c>
@@ -3830,16 +3889,16 @@
         <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D68">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E68" t="s">
         <v>20</v>
       </c>
       <c r="F68" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="G68" t="s">
         <v>12</v>
@@ -3848,24 +3907,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B69" t="s">
         <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D69">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E69" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="F69" t="s">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="G69" t="s">
         <v>12</v>
@@ -3874,7 +3933,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>49</v>
       </c>
@@ -3882,16 +3941,16 @@
         <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E70" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F70" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="G70" t="s">
         <v>12</v>
@@ -3900,7 +3959,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>49</v>
       </c>
@@ -3908,16 +3967,16 @@
         <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="D71">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E71" t="s">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="F71" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="G71" t="s">
         <v>12</v>
@@ -3926,7 +3985,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>49</v>
       </c>
@@ -3934,16 +3993,16 @@
         <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="D72">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E72" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="F72" t="s">
-        <v>19</v>
+        <v>119</v>
       </c>
       <c r="G72" t="s">
         <v>12</v>
@@ -3952,7 +4011,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>49</v>
       </c>
@@ -3960,42 +4019,42 @@
         <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="D73">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E73" t="s">
+        <v>20</v>
+      </c>
+      <c r="F73" t="s">
+        <v>120</v>
+      </c>
+      <c r="G73" t="s">
+        <v>12</v>
+      </c>
+      <c r="H73" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>50</v>
+      </c>
+      <c r="B74" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" t="s">
+        <v>121</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74" t="s">
         <v>101</v>
       </c>
-      <c r="F73" t="s">
-        <v>130</v>
-      </c>
-      <c r="G73" t="s">
-        <v>12</v>
-      </c>
-      <c r="H73" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A74">
-        <v>49</v>
-      </c>
-      <c r="B74" t="s">
-        <v>8</v>
-      </c>
-      <c r="C74" t="s">
-        <v>129</v>
-      </c>
-      <c r="D74">
-        <v>5</v>
-      </c>
-      <c r="E74" t="s">
-        <v>22</v>
-      </c>
       <c r="F74" t="s">
-        <v>131</v>
+        <v>14</v>
       </c>
       <c r="G74" t="s">
         <v>12</v>
@@ -4004,7 +4063,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>50</v>
       </c>
@@ -4012,16 +4071,16 @@
         <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E75" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="F75" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G75" t="s">
         <v>12</v>
@@ -4030,7 +4089,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>50</v>
       </c>
@@ -4038,16 +4097,16 @@
         <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="D76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E76" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F76" t="s">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="G76" t="s">
         <v>12</v>
@@ -4056,7 +4115,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>50</v>
       </c>
@@ -4064,16 +4123,16 @@
         <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="D77">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E77" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="F77" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="G77" t="s">
         <v>12</v>
@@ -4082,7 +4141,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>50</v>
       </c>
@@ -4090,16 +4149,16 @@
         <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="D78">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E78" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="F78" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="G78" t="s">
         <v>12</v>
@@ -4108,24 +4167,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B79" t="s">
         <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>132</v>
+        <v>83</v>
       </c>
       <c r="D79">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E79" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="F79" t="s">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="G79" t="s">
         <v>12</v>
@@ -4134,7 +4193,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>51</v>
       </c>
@@ -4142,16 +4201,16 @@
         <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E80" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F80" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="G80" t="s">
         <v>12</v>
@@ -4160,7 +4219,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>51</v>
       </c>
@@ -4168,16 +4227,16 @@
         <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D81">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E81" t="s">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="F81" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="G81" t="s">
         <v>12</v>
@@ -4186,7 +4245,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>51</v>
       </c>
@@ -4194,16 +4253,16 @@
         <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D82">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E82" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="F82" t="s">
-        <v>30</v>
+        <v>124</v>
       </c>
       <c r="G82" t="s">
         <v>12</v>
@@ -4212,7 +4271,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>51</v>
       </c>
@@ -4220,16 +4279,16 @@
         <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D83">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E83" t="s">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="F83" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="G83" t="s">
         <v>12</v>
@@ -4238,24 +4297,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B84" t="s">
         <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D84">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E84" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="F84" t="s">
-        <v>136</v>
+        <v>14</v>
       </c>
       <c r="G84" t="s">
         <v>12</v>
@@ -4264,7 +4323,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>52</v>
       </c>
@@ -4272,16 +4331,16 @@
         <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E85" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F85" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G85" t="s">
         <v>12</v>
@@ -4290,7 +4349,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>52</v>
       </c>
@@ -4298,16 +4357,16 @@
         <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="D86">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E86" t="s">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="F86" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="G86" t="s">
         <v>12</v>
@@ -4316,7 +4375,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>52</v>
       </c>
@@ -4324,16 +4383,16 @@
         <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="D87">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E87" t="s">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c r="F87" t="s">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="G87" t="s">
         <v>12</v>
@@ -4342,7 +4401,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>52</v>
       </c>
@@ -4350,16 +4409,16 @@
         <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="D88">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E88" t="s">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="F88" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="G88" t="s">
         <v>12</v>
@@ -4368,24 +4427,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B89" t="s">
         <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D89">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E89" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="F89" t="s">
-        <v>138</v>
+        <v>14</v>
       </c>
       <c r="G89" t="s">
         <v>12</v>
@@ -4394,7 +4453,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>53</v>
       </c>
@@ -4402,16 +4461,16 @@
         <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E90" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F90" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="G90" t="s">
         <v>12</v>
@@ -4420,7 +4479,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>53</v>
       </c>
@@ -4428,16 +4487,16 @@
         <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D91">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E91" t="s">
-        <v>120</v>
+        <v>17</v>
       </c>
       <c r="F91" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="G91" t="s">
         <v>12</v>
@@ -4446,7 +4505,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>53</v>
       </c>
@@ -4454,16 +4513,16 @@
         <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D92">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E92" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F92" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="G92" t="s">
         <v>12</v>
@@ -4472,7 +4531,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>53</v>
       </c>
@@ -4480,16 +4539,16 @@
         <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D93">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E93" t="s">
         <v>20</v>
       </c>
       <c r="F93" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="G93" t="s">
         <v>12</v>
@@ -4498,24 +4557,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B94" t="s">
         <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D94">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E94" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="F94" t="s">
-        <v>140</v>
+        <v>14</v>
       </c>
       <c r="G94" t="s">
         <v>12</v>
@@ -4524,7 +4583,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>54</v>
       </c>
@@ -4532,16 +4591,16 @@
         <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E95" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F95" t="s">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="G95" t="s">
         <v>12</v>
@@ -4550,7 +4609,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>54</v>
       </c>
@@ -4558,16 +4617,16 @@
         <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D96">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E96" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="F96" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="G96" t="s">
         <v>12</v>
@@ -4576,7 +4635,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>54</v>
       </c>
@@ -4584,16 +4643,16 @@
         <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D97">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E97" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="F97" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="G97" t="s">
         <v>12</v>
@@ -4602,7 +4661,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>54</v>
       </c>
@@ -4610,16 +4669,16 @@
         <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D98">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E98" t="s">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="F98" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="G98" t="s">
         <v>12</v>
@@ -4628,24 +4687,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B99" t="s">
         <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D99">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E99" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="F99" t="s">
-        <v>142</v>
+        <v>14</v>
       </c>
       <c r="G99" t="s">
         <v>12</v>
@@ -4654,7 +4713,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>55</v>
       </c>
@@ -4662,16 +4721,16 @@
         <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E100" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F100" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="G100" t="s">
         <v>12</v>
@@ -4680,7 +4739,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>55</v>
       </c>
@@ -4688,16 +4747,16 @@
         <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D101">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E101" t="s">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="F101" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="G101" t="s">
         <v>12</v>
@@ -4706,7 +4765,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>55</v>
       </c>
@@ -4714,16 +4773,16 @@
         <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D102">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E102" t="s">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="F102" t="s">
-        <v>30</v>
+        <v>132</v>
       </c>
       <c r="G102" t="s">
         <v>12</v>
@@ -4732,7 +4791,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>55</v>
       </c>
@@ -4740,16 +4799,16 @@
         <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D103">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E103" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="F103" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="G103" t="s">
         <v>12</v>
@@ -4758,24 +4817,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B104" t="s">
         <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D104">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E104" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="F104" t="s">
-        <v>144</v>
+        <v>14</v>
       </c>
       <c r="G104" t="s">
         <v>12</v>
@@ -4784,7 +4843,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>56</v>
       </c>
@@ -4792,16 +4851,16 @@
         <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E105" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F105" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G105" t="s">
         <v>12</v>
@@ -4810,7 +4869,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>56</v>
       </c>
@@ -4818,16 +4877,16 @@
         <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D106">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E106" t="s">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="F106" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G106" t="s">
         <v>12</v>
@@ -4836,7 +4895,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>56</v>
       </c>
@@ -4844,16 +4903,16 @@
         <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D107">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E107" t="s">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="F107" t="s">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="G107" t="s">
         <v>12</v>
@@ -4862,7 +4921,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>56</v>
       </c>
@@ -4870,16 +4929,16 @@
         <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D108">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E108" t="s">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="F108" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G108" t="s">
         <v>12</v>
@@ -4888,24 +4947,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B109" t="s">
         <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D109">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E109" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="F109" t="s">
-        <v>146</v>
+        <v>14</v>
       </c>
       <c r="G109" t="s">
         <v>12</v>
@@ -4914,7 +4973,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>57</v>
       </c>
@@ -4922,16 +4981,16 @@
         <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="D110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E110" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F110" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="G110" t="s">
         <v>12</v>
@@ -4940,7 +4999,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>57</v>
       </c>
@@ -4948,16 +5007,16 @@
         <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="D111">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E111" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="F111" t="s">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="G111" t="s">
         <v>12</v>
@@ -4966,7 +5025,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>57</v>
       </c>
@@ -4974,16 +5033,16 @@
         <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="D112">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E112" t="s">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="F112" t="s">
-        <v>19</v>
+        <v>136</v>
       </c>
       <c r="G112" t="s">
         <v>12</v>
@@ -4992,7 +5051,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>57</v>
       </c>
@@ -5000,42 +5059,42 @@
         <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="D113">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E113" t="s">
+        <v>20</v>
+      </c>
+      <c r="F113" t="s">
+        <v>137</v>
+      </c>
+      <c r="G113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H113" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>58</v>
+      </c>
+      <c r="B114" t="s">
+        <v>8</v>
+      </c>
+      <c r="C114" t="s">
         <v>121</v>
       </c>
-      <c r="F113" t="s">
-        <v>147</v>
-      </c>
-      <c r="G113" t="s">
-        <v>12</v>
-      </c>
-      <c r="H113" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A114">
-        <v>57</v>
-      </c>
-      <c r="B114" t="s">
-        <v>8</v>
-      </c>
-      <c r="C114" t="s">
-        <v>129</v>
-      </c>
       <c r="D114">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E114" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="F114" t="s">
-        <v>148</v>
+        <v>14</v>
       </c>
       <c r="G114" t="s">
         <v>12</v>
@@ -5044,7 +5103,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>58</v>
       </c>
@@ -5052,16 +5111,16 @@
         <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="D115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E115" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="F115" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G115" t="s">
         <v>12</v>
@@ -5070,7 +5129,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>58</v>
       </c>
@@ -5078,16 +5137,16 @@
         <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="D116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E116" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="F116" t="s">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="G116" t="s">
         <v>12</v>
@@ -5096,7 +5155,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>58</v>
       </c>
@@ -5104,16 +5163,16 @@
         <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="D117">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E117" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="F117" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="G117" t="s">
         <v>12</v>
@@ -5122,7 +5181,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>58</v>
       </c>
@@ -5130,16 +5189,16 @@
         <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="D118">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E118" t="s">
         <v>20</v>
       </c>
       <c r="F118" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="G118" t="s">
         <v>12</v>
@@ -5148,24 +5207,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B119" t="s">
         <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>132</v>
+        <v>83</v>
       </c>
       <c r="D119">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E119" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="F119" t="s">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="G119" t="s">
         <v>12</v>
@@ -5174,7 +5233,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>59</v>
       </c>
@@ -5182,16 +5241,16 @@
         <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E120" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="F120" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="G120" t="s">
         <v>12</v>
@@ -5200,7 +5259,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>59</v>
       </c>
@@ -5208,16 +5267,16 @@
         <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D121">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E121" t="s">
-        <v>120</v>
+        <v>26</v>
       </c>
       <c r="F121" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="G121" t="s">
         <v>12</v>
@@ -5226,7 +5285,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>59</v>
       </c>
@@ -5234,16 +5293,16 @@
         <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D122">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E122" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="F122" t="s">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="G122" t="s">
         <v>12</v>
@@ -5252,7 +5311,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>59</v>
       </c>
@@ -5260,16 +5319,16 @@
         <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D123">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E123" t="s">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="F123" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="G123" t="s">
         <v>12</v>
@@ -5278,24 +5337,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B124" t="s">
         <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D124">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E124" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="F124" t="s">
-        <v>152</v>
+        <v>14</v>
       </c>
       <c r="G124" t="s">
         <v>12</v>
@@ -5304,7 +5363,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>60</v>
       </c>
@@ -5312,16 +5371,16 @@
         <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="D125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E125" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="F125" t="s">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="G125" t="s">
         <v>12</v>
@@ -5330,7 +5389,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>60</v>
       </c>
@@ -5338,16 +5397,16 @@
         <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="D126">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E126" t="s">
-        <v>125</v>
+        <v>32</v>
       </c>
       <c r="F126" t="s">
-        <v>126</v>
+        <v>33</v>
       </c>
       <c r="G126" t="s">
         <v>12</v>
@@ -5356,7 +5415,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>60</v>
       </c>
@@ -5364,16 +5423,16 @@
         <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="D127">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E127" t="s">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="F127" t="s">
-        <v>40</v>
+        <v>142</v>
       </c>
       <c r="G127" t="s">
         <v>12</v>
@@ -5382,7 +5441,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>60</v>
       </c>
@@ -5390,16 +5449,16 @@
         <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="D128">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E128" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="F128" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="G128" t="s">
         <v>12</v>
@@ -5408,24 +5467,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B129" t="s">
         <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D129">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E129" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="F129" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
       <c r="G129" t="s">
         <v>12</v>
@@ -5434,7 +5493,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>61</v>
       </c>
@@ -5442,16 +5501,16 @@
         <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E130" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F130" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="G130" t="s">
         <v>12</v>
@@ -5460,7 +5519,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>61</v>
       </c>
@@ -5468,16 +5527,16 @@
         <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D131">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E131" t="s">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="F131" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="G131" t="s">
         <v>12</v>
@@ -5486,7 +5545,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>61</v>
       </c>
@@ -5494,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D132">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E132" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="F132" t="s">
-        <v>19</v>
+        <v>144</v>
       </c>
       <c r="G132" t="s">
         <v>12</v>
@@ -5512,7 +5571,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>61</v>
       </c>
@@ -5520,16 +5579,16 @@
         <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D133">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E133" t="s">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="F133" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="G133" t="s">
         <v>12</v>
@@ -5538,24 +5597,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B134" t="s">
         <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D134">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E134" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="F134" t="s">
-        <v>156</v>
+        <v>14</v>
       </c>
       <c r="G134" t="s">
         <v>12</v>
@@ -5564,7 +5623,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>62</v>
       </c>
@@ -5572,16 +5631,16 @@
         <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E135" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="F135" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G135" t="s">
         <v>12</v>
@@ -5590,7 +5649,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>62</v>
       </c>
@@ -5598,16 +5657,16 @@
         <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D136">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E136" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F136" t="s">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="G136" t="s">
         <v>12</v>
@@ -5616,7 +5675,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>62</v>
       </c>
@@ -5624,16 +5683,16 @@
         <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D137">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E137" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F137" t="s">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="G137" t="s">
         <v>12</v>
@@ -5642,7 +5701,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>62</v>
       </c>
@@ -5650,16 +5709,16 @@
         <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D138">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E138" t="s">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="F138" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="G138" t="s">
         <v>12</v>
@@ -5668,24 +5727,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B139" t="s">
         <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D139">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E139" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="F139" t="s">
-        <v>158</v>
+        <v>14</v>
       </c>
       <c r="G139" t="s">
         <v>12</v>
@@ -5694,7 +5753,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>63</v>
       </c>
@@ -5702,16 +5761,16 @@
         <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E140" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F140" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="G140" t="s">
         <v>12</v>
@@ -5720,7 +5779,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>63</v>
       </c>
@@ -5728,16 +5787,16 @@
         <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D141">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E141" t="s">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="F141" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="G141" t="s">
         <v>12</v>
@@ -5746,7 +5805,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>63</v>
       </c>
@@ -5754,16 +5813,16 @@
         <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D142">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E142" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F142" t="s">
-        <v>30</v>
+        <v>148</v>
       </c>
       <c r="G142" t="s">
         <v>12</v>
@@ -5772,7 +5831,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>63</v>
       </c>
@@ -5780,16 +5839,16 @@
         <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D143">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E143" t="s">
         <v>20</v>
       </c>
       <c r="F143" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="G143" t="s">
         <v>12</v>
@@ -5798,24 +5857,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B144" t="s">
         <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D144">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E144" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="F144" t="s">
-        <v>160</v>
+        <v>14</v>
       </c>
       <c r="G144" t="s">
         <v>12</v>
@@ -5824,7 +5883,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>64</v>
       </c>
@@ -5832,16 +5891,16 @@
         <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E145" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F145" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G145" t="s">
         <v>12</v>
@@ -5850,7 +5909,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>64</v>
       </c>
@@ -5858,16 +5917,16 @@
         <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D146">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E146" t="s">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="F146" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="G146" t="s">
         <v>12</v>
@@ -5876,7 +5935,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>64</v>
       </c>
@@ -5884,16 +5943,16 @@
         <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D147">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E147" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="F147" t="s">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="G147" t="s">
         <v>12</v>
@@ -5902,7 +5961,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>64</v>
       </c>
@@ -5910,16 +5969,16 @@
         <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D148">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E148" t="s">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="F148" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="G148" t="s">
         <v>12</v>
@@ -5928,24 +5987,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B149" t="s">
         <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D149">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E149" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="F149" t="s">
-        <v>162</v>
+        <v>14</v>
       </c>
       <c r="G149" t="s">
         <v>12</v>
@@ -5954,7 +6013,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>65</v>
       </c>
@@ -5962,16 +6021,16 @@
         <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="D150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E150" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F150" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="G150" t="s">
         <v>12</v>
@@ -5980,7 +6039,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>65</v>
       </c>
@@ -5988,16 +6047,16 @@
         <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="D151">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E151" t="s">
-        <v>120</v>
+        <v>17</v>
       </c>
       <c r="F151" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="G151" t="s">
         <v>12</v>
@@ -6006,7 +6065,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>65</v>
       </c>
@@ -6014,16 +6073,16 @@
         <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="D152">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E152" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="F152" t="s">
-        <v>19</v>
+        <v>152</v>
       </c>
       <c r="G152" t="s">
         <v>12</v>
@@ -6032,7 +6091,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>65</v>
       </c>
@@ -6040,16 +6099,16 @@
         <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="D153">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E153" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="F153" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="G153" t="s">
         <v>12</v>
@@ -6058,24 +6117,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B154" t="s">
         <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D154">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E154" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="F154" t="s">
-        <v>164</v>
+        <v>14</v>
       </c>
       <c r="G154" t="s">
         <v>12</v>
@@ -6084,7 +6143,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>66</v>
       </c>
@@ -6092,16 +6151,16 @@
         <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="D155">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E155" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F155" t="s">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="G155" t="s">
         <v>12</v>
@@ -6110,7 +6169,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>66</v>
       </c>
@@ -6118,16 +6177,16 @@
         <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="D156">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E156" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="F156" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="G156" t="s">
         <v>12</v>
@@ -6136,7 +6195,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>66</v>
       </c>
@@ -6144,16 +6203,16 @@
         <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="D157">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E157" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="F157" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="G157" t="s">
         <v>12</v>
@@ -6162,7 +6221,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>66</v>
       </c>
@@ -6170,16 +6229,16 @@
         <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="D158">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E158" t="s">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="F158" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="G158" t="s">
         <v>12</v>
@@ -6188,24 +6247,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B159" t="s">
         <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>132</v>
+        <v>83</v>
       </c>
       <c r="D159">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E159" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="F159" t="s">
-        <v>166</v>
+        <v>14</v>
       </c>
       <c r="G159" t="s">
         <v>12</v>
@@ -6214,7 +6273,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>67</v>
       </c>
@@ -6222,16 +6281,16 @@
         <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D160">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E160" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F160" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="G160" t="s">
         <v>12</v>
@@ -6240,7 +6299,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>67</v>
       </c>
@@ -6248,16 +6307,16 @@
         <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D161">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E161" t="s">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="F161" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="G161" t="s">
         <v>12</v>
@@ -6266,7 +6325,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>67</v>
       </c>
@@ -6274,16 +6333,16 @@
         <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D162">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E162" t="s">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="F162" t="s">
-        <v>30</v>
+        <v>156</v>
       </c>
       <c r="G162" t="s">
         <v>12</v>
@@ -6292,7 +6351,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>67</v>
       </c>
@@ -6300,16 +6359,16 @@
         <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D163">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E163" t="s">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="F163" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="G163" t="s">
         <v>12</v>
@@ -6318,24 +6377,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B164" t="s">
         <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D164">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E164" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="F164" t="s">
-        <v>168</v>
+        <v>14</v>
       </c>
       <c r="G164" t="s">
         <v>12</v>
@@ -6344,7 +6403,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="165" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>68</v>
       </c>
@@ -6352,16 +6411,16 @@
         <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="D165">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E165" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F165" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G165" t="s">
         <v>12</v>
@@ -6370,7 +6429,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>68</v>
       </c>
@@ -6378,16 +6437,16 @@
         <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="D166">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E166" t="s">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="F166" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G166" t="s">
         <v>12</v>
@@ -6396,7 +6455,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>68</v>
       </c>
@@ -6404,16 +6463,16 @@
         <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="D167">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E167" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="F167" t="s">
-        <v>40</v>
+        <v>158</v>
       </c>
       <c r="G167" t="s">
         <v>12</v>
@@ -6422,7 +6481,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>68</v>
       </c>
@@ -6430,16 +6489,16 @@
         <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="D168">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E168" t="s">
         <v>20</v>
       </c>
       <c r="F168" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="G168" t="s">
         <v>12</v>
@@ -6448,24 +6507,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B169" t="s">
         <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D169">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E169" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="F169" t="s">
-        <v>170</v>
+        <v>14</v>
       </c>
       <c r="G169" t="s">
         <v>12</v>
@@ -6474,7 +6533,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>69</v>
       </c>
@@ -6482,16 +6541,16 @@
         <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E170" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F170" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="G170" t="s">
         <v>12</v>
@@ -6500,7 +6559,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>69</v>
       </c>
@@ -6508,16 +6567,16 @@
         <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D171">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E171" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="F171" t="s">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="G171" t="s">
         <v>12</v>
@@ -6526,7 +6585,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>69</v>
       </c>
@@ -6534,16 +6593,16 @@
         <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D172">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E172" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="F172" t="s">
-        <v>19</v>
+        <v>160</v>
       </c>
       <c r="G172" t="s">
         <v>12</v>
@@ -6552,7 +6611,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>69</v>
       </c>
@@ -6560,42 +6619,42 @@
         <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D173">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E173" t="s">
+        <v>20</v>
+      </c>
+      <c r="F173" t="s">
+        <v>161</v>
+      </c>
+      <c r="G173" t="s">
+        <v>12</v>
+      </c>
+      <c r="H173" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>70</v>
+      </c>
+      <c r="B174" t="s">
+        <v>8</v>
+      </c>
+      <c r="C174" t="s">
+        <v>100</v>
+      </c>
+      <c r="D174">
+        <v>1</v>
+      </c>
+      <c r="E174" t="s">
         <v>101</v>
       </c>
-      <c r="F173" t="s">
-        <v>171</v>
-      </c>
-      <c r="G173" t="s">
-        <v>12</v>
-      </c>
-      <c r="H173" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A174">
-        <v>69</v>
-      </c>
-      <c r="B174" t="s">
-        <v>8</v>
-      </c>
-      <c r="C174" t="s">
-        <v>104</v>
-      </c>
-      <c r="D174">
-        <v>5</v>
-      </c>
-      <c r="E174" t="s">
-        <v>22</v>
-      </c>
       <c r="F174" t="s">
-        <v>172</v>
+        <v>14</v>
       </c>
       <c r="G174" t="s">
         <v>12</v>
@@ -6604,7 +6663,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>70</v>
       </c>
@@ -6612,16 +6671,16 @@
         <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D175">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E175" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="F175" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G175" t="s">
         <v>12</v>
@@ -6630,7 +6689,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>70</v>
       </c>
@@ -6638,16 +6697,16 @@
         <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D176">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E176" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="F176" t="s">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="G176" t="s">
         <v>12</v>
@@ -6656,7 +6715,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>70</v>
       </c>
@@ -6664,16 +6723,16 @@
         <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D177">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E177" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="F177" t="s">
-        <v>115</v>
+        <v>162</v>
       </c>
       <c r="G177" t="s">
         <v>12</v>
@@ -6682,7 +6741,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="178" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>70</v>
       </c>
@@ -6690,42 +6749,42 @@
         <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D178">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E178" t="s">
+        <v>20</v>
+      </c>
+      <c r="F178" t="s">
+        <v>163</v>
+      </c>
+      <c r="G178" t="s">
+        <v>12</v>
+      </c>
+      <c r="H178" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>71</v>
+      </c>
+      <c r="B179" t="s">
+        <v>8</v>
+      </c>
+      <c r="C179" t="s">
         <v>108</v>
       </c>
-      <c r="F178" t="s">
-        <v>173</v>
-      </c>
-      <c r="G178" t="s">
-        <v>12</v>
-      </c>
-      <c r="H178" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A179">
-        <v>70</v>
-      </c>
-      <c r="B179" t="s">
-        <v>8</v>
-      </c>
-      <c r="C179" t="s">
-        <v>111</v>
-      </c>
       <c r="D179">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E179" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="F179" t="s">
-        <v>174</v>
+        <v>14</v>
       </c>
       <c r="G179" t="s">
         <v>12</v>
@@ -6734,7 +6793,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="180" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>71</v>
       </c>
@@ -6742,16 +6801,16 @@
         <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D180">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E180" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="F180" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="G180" t="s">
         <v>12</v>
@@ -6760,7 +6819,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="181" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>71</v>
       </c>
@@ -6768,16 +6827,16 @@
         <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D181">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E181" t="s">
-        <v>120</v>
+        <v>26</v>
       </c>
       <c r="F181" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="G181" t="s">
         <v>12</v>
@@ -6786,7 +6845,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="182" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>71</v>
       </c>
@@ -6794,16 +6853,16 @@
         <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D182">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E182" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="F182" t="s">
-        <v>30</v>
+        <v>164</v>
       </c>
       <c r="G182" t="s">
         <v>12</v>
@@ -6812,7 +6871,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="183" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>71</v>
       </c>
@@ -6820,16 +6879,16 @@
         <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D183">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E183" t="s">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="F183" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="G183" t="s">
         <v>12</v>
@@ -6838,24 +6897,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B184" t="s">
         <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D184">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E184" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="F184" t="s">
-        <v>176</v>
+        <v>14</v>
       </c>
       <c r="G184" t="s">
         <v>12</v>
@@ -6864,7 +6923,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>72</v>
       </c>
@@ -6872,16 +6931,16 @@
         <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D185">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E185" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="F185" t="s">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="G185" t="s">
         <v>12</v>
@@ -6890,7 +6949,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>72</v>
       </c>
@@ -6898,16 +6957,16 @@
         <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D186">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E186" t="s">
-        <v>125</v>
+        <v>32</v>
       </c>
       <c r="F186" t="s">
-        <v>126</v>
+        <v>33</v>
       </c>
       <c r="G186" t="s">
         <v>12</v>
@@ -6916,7 +6975,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>72</v>
       </c>
@@ -6924,16 +6983,16 @@
         <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D187">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E187" t="s">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c r="F187" t="s">
-        <v>40</v>
+        <v>166</v>
       </c>
       <c r="G187" t="s">
         <v>12</v>
@@ -6942,7 +7001,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>72</v>
       </c>
@@ -6950,16 +7009,16 @@
         <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D188">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E188" t="s">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="F188" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="G188" t="s">
         <v>12</v>
@@ -6968,24 +7027,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="189" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B189" t="s">
         <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D189">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E189" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="F189" t="s">
-        <v>178</v>
+        <v>14</v>
       </c>
       <c r="G189" t="s">
         <v>12</v>
@@ -6994,7 +7053,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="190" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>73</v>
       </c>
@@ -7002,16 +7061,16 @@
         <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="D190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E190" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F190" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="G190" t="s">
         <v>12</v>
@@ -7020,7 +7079,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>73</v>
       </c>
@@ -7028,16 +7087,16 @@
         <v>8</v>
       </c>
       <c r="C191" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="D191">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E191" t="s">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="F191" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="G191" t="s">
         <v>12</v>
@@ -7046,7 +7105,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="192" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>73</v>
       </c>
@@ -7054,16 +7113,16 @@
         <v>8</v>
       </c>
       <c r="C192" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="D192">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E192" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F192" t="s">
-        <v>19</v>
+        <v>168</v>
       </c>
       <c r="G192" t="s">
         <v>12</v>
@@ -7072,7 +7131,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="193" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>73</v>
       </c>
@@ -7080,16 +7139,16 @@
         <v>8</v>
       </c>
       <c r="C193" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="D193">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E193" t="s">
         <v>20</v>
       </c>
       <c r="F193" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="G193" t="s">
         <v>12</v>
@@ -7098,24 +7157,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="194" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B194" t="s">
         <v>8</v>
       </c>
       <c r="C194" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D194">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E194" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="F194" t="s">
-        <v>180</v>
+        <v>14</v>
       </c>
       <c r="G194" t="s">
         <v>12</v>
@@ -7124,7 +7183,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="195" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>74</v>
       </c>
@@ -7132,16 +7191,16 @@
         <v>8</v>
       </c>
       <c r="C195" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="D195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E195" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="F195" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G195" t="s">
         <v>12</v>
@@ -7150,7 +7209,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="196" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>74</v>
       </c>
@@ -7158,16 +7217,16 @@
         <v>8</v>
       </c>
       <c r="C196" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="D196">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E196" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F196" t="s">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="G196" t="s">
         <v>12</v>
@@ -7176,7 +7235,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="197" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>74</v>
       </c>
@@ -7184,16 +7243,16 @@
         <v>8</v>
       </c>
       <c r="C197" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="D197">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E197" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="F197" t="s">
-        <v>115</v>
+        <v>170</v>
       </c>
       <c r="G197" t="s">
         <v>12</v>
@@ -7202,7 +7261,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="198" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>74</v>
       </c>
@@ -7210,16 +7269,16 @@
         <v>8</v>
       </c>
       <c r="C198" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="D198">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E198" t="s">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="F198" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="G198" t="s">
         <v>12</v>
@@ -7228,24 +7287,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="199" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B199" t="s">
         <v>8</v>
       </c>
       <c r="C199" t="s">
-        <v>132</v>
+        <v>83</v>
       </c>
       <c r="D199">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E199" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="F199" t="s">
-        <v>182</v>
+        <v>14</v>
       </c>
       <c r="G199" t="s">
         <v>12</v>
@@ -7254,7 +7313,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="200" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>75</v>
       </c>
@@ -7262,16 +7321,16 @@
         <v>8</v>
       </c>
       <c r="C200" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D200">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E200" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F200" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="G200" t="s">
         <v>12</v>
@@ -7280,7 +7339,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="201" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>75</v>
       </c>
@@ -7288,16 +7347,16 @@
         <v>8</v>
       </c>
       <c r="C201" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D201">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E201" t="s">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="F201" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="G201" t="s">
         <v>12</v>
@@ -7306,7 +7365,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>75</v>
       </c>
@@ -7314,16 +7373,16 @@
         <v>8</v>
       </c>
       <c r="C202" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D202">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E202" t="s">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="F202" t="s">
-        <v>30</v>
+        <v>172</v>
       </c>
       <c r="G202" t="s">
         <v>12</v>
@@ -7332,7 +7391,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="203" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>75</v>
       </c>
@@ -7340,16 +7399,16 @@
         <v>8</v>
       </c>
       <c r="C203" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D203">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E203" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="F203" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="G203" t="s">
         <v>12</v>
@@ -7358,33 +7417,33 @@
         <v>13</v>
       </c>
     </row>
-    <row r="204" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B204" t="s">
         <v>8</v>
       </c>
       <c r="C204" t="s">
-        <v>92</v>
+        <v>174</v>
       </c>
       <c r="D204">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E204" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F204" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="G204" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="H204" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="205" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>76</v>
       </c>
@@ -7392,25 +7451,25 @@
         <v>8</v>
       </c>
       <c r="C205" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="D205">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E205" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F205" t="s">
-        <v>186</v>
+        <v>41</v>
       </c>
       <c r="G205" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H205" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="206" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>76</v>
       </c>
@@ -7418,51 +7477,51 @@
         <v>8</v>
       </c>
       <c r="C206" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="D206">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E206" t="s">
-        <v>48</v>
+        <v>176</v>
       </c>
       <c r="F206" t="s">
-        <v>49</v>
+        <v>177</v>
       </c>
       <c r="G206" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H206" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="207" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B207" t="s">
         <v>8</v>
       </c>
       <c r="C207" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D207">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E207" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="F207" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G207" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H207" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="208" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>77</v>
       </c>
@@ -7470,25 +7529,25 @@
         <v>8</v>
       </c>
       <c r="C208" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D208">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E208" t="s">
-        <v>190</v>
+        <v>40</v>
       </c>
       <c r="F208" t="s">
-        <v>191</v>
+        <v>41</v>
       </c>
       <c r="G208" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H208" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="209" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>77</v>
       </c>
@@ -7496,51 +7555,51 @@
         <v>8</v>
       </c>
       <c r="C209" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D209">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E209" t="s">
-        <v>48</v>
+        <v>181</v>
       </c>
       <c r="F209" t="s">
-        <v>49</v>
+        <v>182</v>
       </c>
       <c r="G209" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H209" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="210" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B210" t="s">
         <v>8</v>
       </c>
       <c r="C210" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D210">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E210" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="F210" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="G210" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H210" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="211" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>78</v>
       </c>
@@ -7548,25 +7607,25 @@
         <v>8</v>
       </c>
       <c r="C211" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D211">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E211" t="s">
-        <v>195</v>
+        <v>40</v>
       </c>
       <c r="F211" t="s">
-        <v>196</v>
+        <v>41</v>
       </c>
       <c r="G211" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H211" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="212" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>78</v>
       </c>
@@ -7574,51 +7633,51 @@
         <v>8</v>
       </c>
       <c r="C212" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D212">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E212" t="s">
-        <v>48</v>
+        <v>186</v>
       </c>
       <c r="F212" t="s">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="G212" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H212" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="213" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B213" t="s">
         <v>8</v>
       </c>
       <c r="C213" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D213">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E213" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="F213" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G213" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H213" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="214" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>79</v>
       </c>
@@ -7626,25 +7685,25 @@
         <v>8</v>
       </c>
       <c r="C214" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="D214">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E214" t="s">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="F214" t="s">
-        <v>201</v>
+        <v>41</v>
       </c>
       <c r="G214" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H214" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="215" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>79</v>
       </c>
@@ -7652,51 +7711,51 @@
         <v>8</v>
       </c>
       <c r="C215" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="D215">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E215" t="s">
-        <v>48</v>
+        <v>191</v>
       </c>
       <c r="F215" t="s">
-        <v>49</v>
+        <v>192</v>
       </c>
       <c r="G215" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H215" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="216" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B216" t="s">
         <v>8</v>
       </c>
       <c r="C216" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D216">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E216" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="F216" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="G216" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H216" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="217" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>80</v>
       </c>
@@ -7704,25 +7763,25 @@
         <v>8</v>
       </c>
       <c r="C217" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="D217">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E217" t="s">
-        <v>205</v>
+        <v>40</v>
       </c>
       <c r="F217" t="s">
-        <v>206</v>
+        <v>41</v>
       </c>
       <c r="G217" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H217" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="218" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>80</v>
       </c>
@@ -7730,51 +7789,51 @@
         <v>8</v>
       </c>
       <c r="C218" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="D218">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E218" t="s">
-        <v>48</v>
+        <v>196</v>
       </c>
       <c r="F218" t="s">
-        <v>49</v>
+        <v>197</v>
       </c>
       <c r="G218" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H218" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="219" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B219" t="s">
         <v>8</v>
       </c>
       <c r="C219" t="s">
-        <v>204</v>
+        <v>36</v>
       </c>
       <c r="D219">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E219" t="s">
-        <v>207</v>
+        <v>37</v>
       </c>
       <c r="F219" t="s">
-        <v>208</v>
+        <v>38</v>
       </c>
       <c r="G219" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H219" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="220" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>81</v>
       </c>
@@ -7782,25 +7841,25 @@
         <v>8</v>
       </c>
       <c r="C220" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D220">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E220" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F220" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G220" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H220" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="221" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>81</v>
       </c>
@@ -7808,27 +7867,27 @@
         <v>8</v>
       </c>
       <c r="C221" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D221">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E221" t="s">
-        <v>48</v>
+        <v>198</v>
       </c>
       <c r="F221" t="s">
-        <v>49</v>
+        <v>199</v>
       </c>
       <c r="G221" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H221" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="222" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B222" t="s">
         <v>8</v>
@@ -7837,22 +7896,22 @@
         <v>44</v>
       </c>
       <c r="D222">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E222" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="F222" t="s">
-        <v>210</v>
+        <v>46</v>
       </c>
       <c r="G222" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H222" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="223" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>82</v>
       </c>
@@ -7860,25 +7919,25 @@
         <v>8</v>
       </c>
       <c r="C223" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D223">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E223" t="s">
-        <v>211</v>
+        <v>40</v>
       </c>
       <c r="F223" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="G223" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H223" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="224" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>82</v>
       </c>
@@ -7886,51 +7945,51 @@
         <v>8</v>
       </c>
       <c r="C224" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D224">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E224" t="s">
-        <v>48</v>
+        <v>201</v>
       </c>
       <c r="F224" t="s">
-        <v>49</v>
+        <v>202</v>
       </c>
       <c r="G224" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H224" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="225" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B225" t="s">
         <v>8</v>
       </c>
       <c r="C225" t="s">
-        <v>52</v>
+        <v>203</v>
       </c>
       <c r="D225">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E225" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F225" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="G225" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H225" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="226" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>83</v>
       </c>
@@ -7938,25 +7997,25 @@
         <v>8</v>
       </c>
       <c r="C226" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="D226">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E226" t="s">
-        <v>215</v>
+        <v>40</v>
       </c>
       <c r="F226" t="s">
-        <v>216</v>
+        <v>41</v>
       </c>
       <c r="G226" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H226" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="227" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>83</v>
       </c>
@@ -7964,54 +8023,29 @@
         <v>8</v>
       </c>
       <c r="C227" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="D227">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E227" t="s">
-        <v>48</v>
+        <v>206</v>
       </c>
       <c r="F227" t="s">
-        <v>49</v>
+        <v>207</v>
       </c>
       <c r="G227" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H227" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A228">
-        <v>83</v>
-      </c>
-      <c r="B228" t="s">
-        <v>8</v>
-      </c>
-      <c r="C228" t="s">
-        <v>214</v>
-      </c>
-      <c r="D228">
-        <v>3</v>
-      </c>
-      <c r="E228" t="s">
-        <v>217</v>
-      </c>
-      <c r="F228" t="s">
-        <v>218</v>
-      </c>
-      <c r="G228" t="s">
-        <v>47</v>
-      </c>
-      <c r="H228" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:H1 A3:H228 A2:D2 F2:H2" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:H1 A4:D4 A2:D2 G2:H2 A21:H22 A5:D5 G5:H5 A10:D10 G10:H10 A3:D3 G3:H3 G4:H4 A11:D11 G11:H11 A12:D12 G12:H12 A13:E13 G13:H13 A14:D14 G14:H14 A15:D15 G15:H15 A16:D16 G16:H16 A17:D17 G17:H17 A18:D18 G18:H18 A19:D19 F19:H19 A20:D20 G20:H20 A24:H25 A23:D23 F23:H23 A27:H27 A26:D26 F26:H26 A30:H33 A28:D28 G28:H28 A29:D29 G29:H29 A35:H36 A34:D34 F34:H34 A38:H38 A37:D37 F37:H37 A45:H227 A39:D39 F39:H39 A40:D40 G40:H40 A41:D41 G41:H41 A42:D42 G42:H42 A43:D43 G43:H43 A44:D44 F44:H44" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -8022,7 +8056,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.796875" customWidth="1"/>
     <col min="2" max="2" width="10.796875" customWidth="1"/>
@@ -8032,7 +8066,7 @@
     <col min="6" max="6" width="20.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8043,7 +8077,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="E1" t="s">
         <v>6</v>
@@ -8052,7 +8086,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8072,7 +8106,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8080,7 +8114,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D3">
         <v>6</v>
@@ -8092,7 +8126,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8100,7 +8134,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D4">
         <v>6</v>
@@ -8112,7 +8146,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>21</v>
       </c>
@@ -8120,19 +8154,19 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>22</v>
       </c>
@@ -8140,19 +8174,19 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>31</v>
       </c>
@@ -8160,19 +8194,19 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D7">
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>32</v>
       </c>
@@ -8180,19 +8214,19 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D8">
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>41</v>
       </c>
@@ -8200,19 +8234,19 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D9">
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>42</v>
       </c>
@@ -8220,19 +8254,19 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D10">
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>43</v>
       </c>
@@ -8240,7 +8274,7 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D11">
         <v>5</v>
@@ -8252,7 +8286,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>44</v>
       </c>
@@ -8260,7 +8294,7 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="D12">
         <v>5</v>
@@ -8272,7 +8306,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>45</v>
       </c>
@@ -8280,7 +8314,7 @@
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D13">
         <v>5</v>
@@ -8292,7 +8326,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>46</v>
       </c>
@@ -8300,7 +8334,7 @@
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D14">
         <v>5</v>
@@ -8312,7 +8346,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>47</v>
       </c>
@@ -8320,7 +8354,7 @@
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D15">
         <v>5</v>
@@ -8332,7 +8366,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>48</v>
       </c>
@@ -8340,7 +8374,7 @@
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D16">
         <v>5</v>
@@ -8352,7 +8386,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>49</v>
       </c>
@@ -8360,7 +8394,7 @@
         <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="D17">
         <v>5</v>
@@ -8372,7 +8406,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>50</v>
       </c>
@@ -8380,7 +8414,7 @@
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="D18">
         <v>5</v>
@@ -8392,7 +8426,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>51</v>
       </c>
@@ -8400,7 +8434,7 @@
         <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D19">
         <v>5</v>
@@ -8412,7 +8446,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>52</v>
       </c>
@@ -8420,7 +8454,7 @@
         <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="D20">
         <v>5</v>
@@ -8432,7 +8466,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>53</v>
       </c>
@@ -8440,7 +8474,7 @@
         <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D21">
         <v>5</v>
@@ -8452,7 +8486,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>54</v>
       </c>
@@ -8460,7 +8494,7 @@
         <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D22">
         <v>5</v>
@@ -8472,7 +8506,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>55</v>
       </c>
@@ -8480,7 +8514,7 @@
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D23">
         <v>5</v>
@@ -8492,7 +8526,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>56</v>
       </c>
@@ -8500,7 +8534,7 @@
         <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D24">
         <v>5</v>
@@ -8512,7 +8546,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>57</v>
       </c>
@@ -8520,7 +8554,7 @@
         <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="D25">
         <v>5</v>
@@ -8532,7 +8566,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>58</v>
       </c>
@@ -8540,7 +8574,7 @@
         <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="D26">
         <v>5</v>
@@ -8552,7 +8586,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>59</v>
       </c>
@@ -8560,7 +8594,7 @@
         <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D27">
         <v>5</v>
@@ -8572,7 +8606,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>60</v>
       </c>
@@ -8580,7 +8614,7 @@
         <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="D28">
         <v>5</v>
@@ -8592,7 +8626,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>61</v>
       </c>
@@ -8600,7 +8634,7 @@
         <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D29">
         <v>5</v>
@@ -8612,7 +8646,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>62</v>
       </c>
@@ -8620,7 +8654,7 @@
         <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D30">
         <v>5</v>
@@ -8632,7 +8666,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>63</v>
       </c>
@@ -8640,7 +8674,7 @@
         <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D31">
         <v>5</v>
@@ -8652,7 +8686,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>64</v>
       </c>
@@ -8660,7 +8694,7 @@
         <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D32">
         <v>5</v>
@@ -8672,7 +8706,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>65</v>
       </c>
@@ -8680,7 +8714,7 @@
         <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="D33">
         <v>5</v>
@@ -8692,7 +8726,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>66</v>
       </c>
@@ -8700,7 +8734,7 @@
         <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="D34">
         <v>5</v>
@@ -8712,7 +8746,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>67</v>
       </c>
@@ -8720,7 +8754,7 @@
         <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D35">
         <v>5</v>
@@ -8732,7 +8766,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>68</v>
       </c>
@@ -8740,7 +8774,7 @@
         <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="D36">
         <v>5</v>
@@ -8752,7 +8786,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>69</v>
       </c>
@@ -8760,7 +8794,7 @@
         <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D37">
         <v>5</v>
@@ -8772,7 +8806,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>70</v>
       </c>
@@ -8780,7 +8814,7 @@
         <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D38">
         <v>5</v>
@@ -8792,7 +8826,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>71</v>
       </c>
@@ -8800,7 +8834,7 @@
         <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D39">
         <v>5</v>
@@ -8812,7 +8846,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>72</v>
       </c>
@@ -8820,7 +8854,7 @@
         <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D40">
         <v>5</v>
@@ -8832,7 +8866,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>73</v>
       </c>
@@ -8840,7 +8874,7 @@
         <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="D41">
         <v>5</v>
@@ -8852,7 +8886,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>74</v>
       </c>
@@ -8860,7 +8894,7 @@
         <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="D42">
         <v>5</v>
@@ -8872,7 +8906,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>75</v>
       </c>
@@ -8880,7 +8914,7 @@
         <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D43">
         <v>5</v>
@@ -8892,7 +8926,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>76</v>
       </c>
@@ -8900,19 +8934,19 @@
         <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="D44">
         <v>3</v>
       </c>
       <c r="E44" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F44" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>77</v>
       </c>
@@ -8920,19 +8954,19 @@
         <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D45">
         <v>3</v>
       </c>
       <c r="E45" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F45" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>78</v>
       </c>
@@ -8940,19 +8974,19 @@
         <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D46">
         <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F46" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>79</v>
       </c>
@@ -8960,19 +8994,19 @@
         <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="D47">
         <v>3</v>
       </c>
       <c r="E47" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F47" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>80</v>
       </c>
@@ -8980,19 +9014,19 @@
         <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="D48">
         <v>3</v>
       </c>
       <c r="E48" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F48" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>81</v>
       </c>
@@ -9000,19 +9034,19 @@
         <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D49">
         <v>3</v>
       </c>
       <c r="E49" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F49" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>82</v>
       </c>
@@ -9020,19 +9054,19 @@
         <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D50">
         <v>3</v>
       </c>
       <c r="E50" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F50" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>83</v>
       </c>
@@ -9040,13 +9074,13 @@
         <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="D51">
         <v>3</v>
       </c>
       <c r="E51" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F51" t="s">
         <v>13</v>
